--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - Ficha Técnica.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matiz de Pruebas SIEDNL - Ficha Técnica.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="68" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="143">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -166,9 +166,6 @@
     <t>Pendiente</t>
   </si>
   <si>
-    <t xml:space="preserve">Busqueda Correcta </t>
-  </si>
-  <si>
     <t xml:space="preserve">Exportar </t>
   </si>
   <si>
@@ -226,24 +223,12 @@
     <t xml:space="preserve">Filtrado de columnas seleccionadas </t>
   </si>
   <si>
-    <t>Filtrado de columnas seleccionadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exporta e Imprime archivo correctamente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtra paginas correctamente </t>
-  </si>
-  <si>
     <t>Matriz de Pruebas SIEDNL</t>
   </si>
   <si>
     <t xml:space="preserve">Proyecto: Sistema del Presupueso Basado en Resultados </t>
   </si>
   <si>
-    <t>mir</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tarea por hacer </t>
   </si>
   <si>
@@ -322,9 +307,6 @@
     <t>Plataforma</t>
   </si>
   <si>
-    <t xml:space="preserve">Busqueda de MIR </t>
-  </si>
-  <si>
     <t>Guardar como Borrador</t>
   </si>
   <si>
@@ -358,12 +340,6 @@
     <t xml:space="preserve">Filtro Por Institución </t>
   </si>
   <si>
-    <t xml:space="preserve">Opciones Comentarios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editar </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cancelar </t>
   </si>
   <si>
@@ -379,51 +355,24 @@
     <t xml:space="preserve">Autorizar </t>
   </si>
   <si>
-    <t>Autorizar MIR y el apartado de meta anual será habilitado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carga Archivo Correctamente </t>
-  </si>
-  <si>
     <t xml:space="preserve">Captura de información </t>
   </si>
   <si>
-    <t xml:space="preserve">Correcto  llenado de la información  correspondiente para la MIR </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cancela Confirmación </t>
   </si>
   <si>
     <t xml:space="preserve">Agregar comentario </t>
   </si>
   <si>
-    <t xml:space="preserve">Permite cancelar Comentatario </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se agrega comentario correctamente </t>
-  </si>
-  <si>
-    <t>Se envia la confirmación al usuario verificador</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cancelación de Comentario </t>
   </si>
   <si>
-    <t xml:space="preserve">Recauda toda la información de la MIR </t>
-  </si>
-  <si>
     <t xml:space="preserve">Permite leer comentarios enviados por el capturador asi como añadir un nuevo comentario y cancelar </t>
   </si>
   <si>
     <t xml:space="preserve">Cancela registro </t>
   </si>
   <si>
-    <t>Guardar como Borrador se almacena en el ménu principal de la MIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edita el registro da pauta para enviar a usuarios correspondientes para autorización </t>
-  </si>
-  <si>
     <t xml:space="preserve">Guarda como Borrador </t>
   </si>
   <si>
@@ -457,39 +406,18 @@
     <t xml:space="preserve">Cerrar Sesión </t>
   </si>
   <si>
-    <t xml:space="preserve">Meta Anual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtro Por Estado de la Meta Anual </t>
-  </si>
-  <si>
     <t xml:space="preserve">Permitir visualizar, añadir y cancelar coemtarios </t>
   </si>
   <si>
-    <t xml:space="preserve">Inicio / Meta Anual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmación Metal Anual enviada a autorización </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opciones Registrar Meta Anual </t>
-  </si>
-  <si>
     <t xml:space="preserve">Permitir dar acceso al llenado de la información  correspondiente para la Meta Anual </t>
   </si>
   <si>
-    <t xml:space="preserve">Opciones Descargar </t>
-  </si>
-  <si>
     <t xml:space="preserve">Permite Descargar el Registro una ves autorizado </t>
   </si>
   <si>
     <t xml:space="preserve">Solicita al uasuario correspondiete realizar modificación enviando comentarios </t>
   </si>
   <si>
-    <t xml:space="preserve">Confirmación de la Meta Anal para Autorizar y el apartado de Ficha Técnica será habilitado </t>
-  </si>
-  <si>
     <t xml:space="preserve">Flujo  Ficha Técnica   </t>
   </si>
   <si>
@@ -538,10 +466,82 @@
     <t xml:space="preserve">Ficha Técnica / Opciones / Comentarios </t>
   </si>
   <si>
-    <t xml:space="preserve">Permitir dar acceso al llenado de la información  correspondiente para la Ficha Técnica </t>
-  </si>
-  <si>
-    <t>ca</t>
+    <t xml:space="preserve">Confirmación Ficha Tecnica enviada a autorización </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busqueda de Ficha Técnica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtro Por Estado de la ficha Técnca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opciones / Ver Ficha Técnica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opciones / Descargar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opciones / Comentarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opciones /  Registrar Ficha Técnica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autorizar  la Ficha Tecnica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmación  de Autorización de la ficha Técnica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficha Técnica / Opciones / Registra Ficha Técnica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir dar acceso al registro con la información  correspondiente para la Ficha Técnica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correcto llenado de la información correspondiete para la Ficha Técnica </t>
+  </si>
+  <si>
+    <t>Guardar como Borrador se almacena en el ménu principal de la Ficha Técnica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite Visualizar Ficha Técnica </t>
+  </si>
+  <si>
+    <t>Jose Angel Pérez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Elizondo </t>
+  </si>
+  <si>
+    <t>Gerardo Flores</t>
+  </si>
+  <si>
+    <t>Jonathan Bustos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Caballero </t>
+  </si>
+  <si>
+    <t>Jose Serna</t>
+  </si>
+  <si>
+    <t>Marlon Méndez</t>
+  </si>
+  <si>
+    <t>Mayra Cortes</t>
+  </si>
+  <si>
+    <t>Noe Treviño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Pardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodolfo Zuñiga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar Correcta las credenciales  </t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,12 +620,6 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -895,6 +889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -946,7 +941,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Énfasis3" xfId="2" builtinId="40"/>
@@ -1816,10 +1810,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5230,13 +5224,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45084.560683796299" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="278">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45085.49575115741" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="279">
   <cacheSource type="worksheet">
     <worksheetSource ref="A6:N1048576" sheet="Ficha Técnica"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="26"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="68"/>
     </cacheField>
     <cacheField name="Menús" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5255,9 +5249,9 @@
     </cacheField>
     <cacheField name="Estatus de Prueba" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
+        <s v="Error"/>
         <s v="Realizado"/>
         <s v="Pendiente"/>
-        <s v="Error"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -5273,29 +5267,29 @@
     <cacheField name="Desarrollador" numFmtId="0">
       <sharedItems containsNonDate="0" containsBlank="1" count="4">
         <m/>
+        <s v="Juanita Reyes" u="1"/>
         <s v="Abelino Olguín" u="1"/>
-        <s v="Juanita Reyes" u="1"/>
         <s v="Adolfo García" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Estatus Incidente" numFmtId="0">
       <sharedItems containsNonDate="0" containsBlank="1" count="9">
         <m/>
+        <s v="Abierto" u="1"/>
+        <s v="Resuelta" u="1"/>
+        <s v="Cerrado" u="1"/>
         <s v="Confirmada" u="1"/>
-        <s v="Resuelta" u="1"/>
         <s v="Aceptada" u="1"/>
         <s v="Pendiente de  validacion" u="1"/>
-        <s v="Abierto" u="1"/>
         <s v="Asignada" u="1"/>
         <s v="Cerrada " u="1"/>
-        <s v="Cerrado" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="N° de Tarea Jira" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Fecha " numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-06-06T00:00:00" maxDate="2023-06-07T00:00:00"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5307,7 +5301,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="278">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="279">
   <r>
     <n v="1"/>
     <s v="Ingresar sitio wed"/>
@@ -5331,7 +5325,7 @@
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Ingresar "/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Busqueda Correcta "/>
     <s v="Busqueda Correcta "/>
     <m/>
@@ -5347,7 +5341,7 @@
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Columnas "/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Filtrado de columnas seleccionadas"/>
     <s v="Filtrado de columnas seleccionadas "/>
     <m/>
@@ -5363,7 +5357,7 @@
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Exportar "/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Exporta e Imprime archivo correctamente "/>
     <s v="Generación correcta "/>
     <m/>
@@ -5379,7 +5373,7 @@
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Filtrado por página"/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Filtra paginas correctamente "/>
     <s v="Se realiza muestran correctamente los número de registros consultados"/>
     <m/>
@@ -5395,39 +5389,87 @@
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Inicio "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Principal "/>
+    <s v="Configuración"/>
+    <s v="Capturador"/>
+    <s v="iclechugacapturador"/>
+    <s v="Inicio / Configiraciones "/>
+    <x v="2"/>
+    <m/>
+    <s v="Muestra ventana principal de configuraciones "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Principal "/>
+    <s v="Cambio de Contraseña"/>
+    <s v="Capturador"/>
+    <s v="iclechugacapturador"/>
+    <s v="Modifica Cambio de Contraseña "/>
+    <x v="2"/>
+    <m/>
+    <s v="Cambia modificando la contraseña del usuario"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Principal "/>
+    <s v="Cerrar serión "/>
+    <s v="Capturador"/>
+    <s v="iclechugacapturador"/>
+    <s v="Cierra Sesión "/>
     <x v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="7"/>
+    <s v="Cerrar Sesión "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
     <s v="Programas Presupuestales "/>
-    <s v="MIR"/>
+    <s v="Ficha Técnica "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Busqueda Filtro "/>
-    <x v="2"/>
-    <m/>
-    <s v="Busqueda de MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="8"/>
+    <x v="0"/>
+    <m/>
+    <s v="Busqueda de Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
     <s v="Programas Presupuestales "/>
-    <s v="MIR"/>
+    <s v="Ficha Técnica "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Busqueda Filtro Institución "/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
     <m/>
@@ -5437,13 +5479,13 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <n v="12"/>
     <s v="Programas Presupuestales "/>
-    <s v="MIR"/>
+    <s v="Ficha Técnica "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
-    <s v="Filtro Por Estado de la Mir "/>
-    <x v="0"/>
+    <s v="Filtro Por Estado de la Ficha Técnca "/>
+    <x v="1"/>
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
     <m/>
@@ -5453,205 +5495,189 @@
     <m/>
   </r>
   <r>
-    <n v="10"/>
+    <n v="13"/>
     <s v="Programas Presupuestales "/>
-    <s v="MIR"/>
+    <s v="Ficha Técnica "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
-    <s v="Añadir Registro "/>
-    <x v="0"/>
-    <s v="Acceso correcto "/>
-    <s v="Permitir dar acceso al llenado de la información  correspondiente para la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="11"/>
-    <s v="MIR"/>
+    <s v="Ficha  Técnica/ Opciones / Comentarios "/>
+    <x v="2"/>
+    <m/>
+    <s v="Permitir visualizar, añadir y cancelar coemtarios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="Ficha Técnica"/>
+    <s v="Ficha Técnica "/>
+    <s v="Capturador"/>
+    <s v="iclechugacapturador"/>
+    <s v="Ficha Técnica / Opciones / Registra Ficha Técnica "/>
+    <x v="2"/>
+    <m/>
+    <s v="Permiter registrar Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Ficha Técnica"/>
     <s v="Encabezado "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
-    <s v="Cargar Archivo "/>
-    <x v="0"/>
-    <s v="Carga Archivo Correctamente "/>
-    <s v="Cargar archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="12"/>
-    <s v="MIR"/>
-    <s v="Encabezado "/>
-    <s v="Capturador"/>
-    <s v="iclechugacapturador"/>
-    <s v="Descarga plantilla"/>
+    <s v="Captura de información "/>
     <x v="2"/>
-    <s v="Descarga la plantilla correctamente, El botón plantilla no se distingue, se ve como si fuera un título del apartado, agregar un tooltip descriptivo donde indique que es para descargar."/>
-    <s v="Descargar plantilla "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="https://siednl.atlassian.net/browse/PBR-17"/>
-    <d v="2023-06-06T00:00:00"/>
-  </r>
-  <r>
-    <n v="13"/>
-    <s v="MIR"/>
-    <s v="Encabezado "/>
-    <s v="Capturador"/>
-    <s v="iclechugacapturador"/>
-    <s v="Check box Anticorrupción "/>
-    <x v="1"/>
-    <s v="Selecciona correctamente / El check box anticorrupción ¿Dónde se refleja en el apartado en Resumen?"/>
-    <s v="Permite seleccionar la opción anticorrupción "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="14"/>
-    <s v="MIR"/>
+    <m/>
+    <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="Ficha Técnica"/>
     <s v="Fin  "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Captura de información "/>
-    <x v="1"/>
-    <m/>
-    <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="15"/>
-    <s v="MIR"/>
+    <x v="2"/>
+    <m/>
+    <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="Ficha Técnica"/>
     <s v="Propósito "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Captura de información "/>
-    <x v="1"/>
-    <m/>
-    <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="16"/>
-    <s v="MIR"/>
+    <x v="2"/>
+    <m/>
+    <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="Ficha Técnica"/>
     <s v="Componentes "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Captura de información "/>
-    <x v="1"/>
-    <m/>
-    <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="17"/>
-    <s v="MIR"/>
+    <x v="2"/>
+    <m/>
+    <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="Ficha Técnica"/>
     <s v="Actividades"/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Captura de información "/>
-    <x v="1"/>
-    <m/>
-    <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="18"/>
-    <s v="MIR"/>
+    <x v="2"/>
+    <m/>
+    <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Captura de información "/>
-    <x v="1"/>
-    <m/>
-    <s v="Recauda toda la información de la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="19"/>
-    <s v="MIR"/>
+    <x v="2"/>
+    <m/>
+    <s v="Recauda toda la información de la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Cancelar"/>
-    <x v="0"/>
-    <m/>
-    <s v="Cancela la MIR"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="20"/>
-    <s v="MIR"/>
+    <x v="1"/>
+    <m/>
+    <s v="Cancela la Ficha Técnoca "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Guardar como Borrador"/>
-    <x v="1"/>
-    <m/>
-    <s v="Guarda borrador en los listados de MIR"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="21"/>
-    <s v="MIR"/>
+    <x v="2"/>
+    <m/>
+    <s v="Guarda borrador en los listados de Ficha Técnica"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Enviar "/>
-    <x v="1"/>
-    <m/>
-    <s v="Enviar a un capturador o verificar para su revisión "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="22"/>
-    <s v="MIR"/>
+    <x v="2"/>
+    <m/>
+    <s v="Enviar Ficha Tecnica a un capturador o verificar para su revisión "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Cancelar Confirmación "/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <s v="Cancela Confirmación "/>
     <m/>
@@ -5661,13 +5687,13 @@
     <m/>
   </r>
   <r>
-    <n v="23"/>
-    <s v="MIR"/>
+    <n v="26"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Nuevo Comentario "/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Se agrega comentario correctamente "/>
     <s v="Agregar comentario "/>
     <m/>
@@ -5677,13 +5703,13 @@
     <m/>
   </r>
   <r>
-    <n v="24"/>
-    <s v="MIR"/>
+    <n v="27"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Cancelar Comentario "/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Permite cancelar Comentatario "/>
     <s v="Cancelar Comentario "/>
     <m/>
@@ -5693,44 +5719,44 @@
     <m/>
   </r>
   <r>
-    <n v="25"/>
-    <s v="MIR"/>
+    <n v="28"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Capturador"/>
     <s v="iclechugacapturador"/>
     <s v="Confirmar "/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="Se envia la confirmación al usuario verificador"/>
-    <s v="Confirmación de la MIR para revisión"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="mir"/>
-    <m/>
-  </r>
-  <r>
-    <n v="26"/>
-    <s v="MIR"/>
-    <s v="Inicio / MIR "/>
+    <s v="Confirmación de la Ficha Técnica para revisión"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="Ficha Técnica"/>
+    <s v="Inicio / Ficha Técnica "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
     <s v="Busqueda"/>
     <x v="3"/>
     <m/>
-    <s v="Busqueda de MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
-    <s v="Inicio / MIR "/>
+    <s v="Busqueda de Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="30"/>
+    <s v="Ficha Técnica"/>
+    <s v="Inicio / Ficha Técnica "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
-    <s v="Filtro Por Estado de la Mir "/>
+    <s v="Filtro Por Estado de la Ficha Técnca "/>
     <x v="3"/>
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
@@ -5741,9 +5767,9 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <s v="MIR"/>
-    <s v="Inicio / MIR "/>
+    <n v="31"/>
+    <s v="Ficha Técnica"/>
+    <s v="Inicio / Ficha Técnica "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
     <s v="Filtro Por Institución "/>
@@ -5757,152 +5783,136 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <s v="MIR"/>
-    <s v="Inicio / MIR "/>
+    <n v="32"/>
+    <s v="Ficha Técnica"/>
+    <s v="Inicio / Ficha Técnica "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
-    <s v="Añadir Registro "/>
-    <x v="3"/>
-    <m/>
-    <s v="Permitir dar acceso al llenado de la información  correspondiente para la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
-    <s v="Inicio / MIR "/>
+    <s v="Ficha Técnica / Opciones / Comentarios "/>
+    <x v="3"/>
+    <m/>
+    <s v="Permite leer comentarios enviados por el capturador asi como añadir un nuevo comentario y cancelar "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="33"/>
+    <s v="Ficha Técnica"/>
+    <s v="Inicio / Ficha Técnica "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
-    <s v="Opciones Comentarios "/>
-    <x v="3"/>
-    <m/>
-    <s v="Permite leer comentarios enviados por el capturador asi como añadir un nuevo comentario y cancelar "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
-    <s v="Inicio / MIR "/>
-    <s v="Verificador"/>
-    <s v="iclechugaverificador "/>
-    <s v="Opciones Eliminar "/>
-    <x v="3"/>
-    <m/>
-    <s v="Elimina registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
+    <s v="Meta Anual / Opciones / Registra Ficha Técnica "/>
+    <x v="3"/>
+    <m/>
+    <s v="Permitir dar acceso al registro con la información  correspondiente para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Ficha Técnica"/>
     <s v="Encabezado "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
-    <s v="Editar "/>
-    <x v="3"/>
-    <m/>
-    <s v="Edita el registro da pauta para enviar a usuarios correspondientes para autorización"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
+    <s v="Captura de información "/>
+    <x v="3"/>
+    <m/>
+    <s v="Correcto llenado de la información correspondiete para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="Ficha Técnica"/>
     <s v="Fin  "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
     <s v="Captura de información "/>
     <x v="3"/>
     <m/>
-    <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
+    <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="Ficha Técnica"/>
     <s v="Propósito "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
     <s v="Captura de información "/>
     <x v="3"/>
     <m/>
-    <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
+    <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="Ficha Técnica"/>
     <s v="Componentes "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
     <s v="Captura de información "/>
     <x v="3"/>
     <m/>
-    <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
+    <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="Ficha Técnica"/>
     <s v="Actividades"/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
     <s v="Captura de información "/>
     <x v="3"/>
     <m/>
-    <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
+    <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
     <s v="Captura de información "/>
     <x v="3"/>
     <m/>
-    <s v="Recauda toda la información de la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
+    <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
@@ -5917,8 +5927,8 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <s v="MIR"/>
+    <n v="42"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
@@ -5933,24 +5943,24 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <s v="MIR"/>
+    <n v="43"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
     <s v="Guardar como Borrador"/>
     <x v="3"/>
     <m/>
-    <s v="Guardar como Borrador se almacena en el ménu principal de la MIR"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
+    <s v="Guardar como Borrador se almacena en el ménu principal de la Ficha Técnica"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="44"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
@@ -5965,8 +5975,8 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <s v="MIR"/>
+    <n v="45"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
@@ -5981,8 +5991,8 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <s v="MIR"/>
+    <n v="46"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
@@ -5997,8 +6007,8 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <s v="MIR"/>
+    <n v="47"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
@@ -6013,44 +6023,44 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <s v="MIR"/>
+    <n v="48"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Verificador"/>
     <s v="iclechugaverificador "/>
     <s v="Confirmar "/>
     <x v="3"/>
     <m/>
-    <s v="Confirmación de la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
-    <s v="Inicio / MIR "/>
+    <s v="Confirmación Ficha Tecnica enviada a autorización "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="Ficha Técnica"/>
+    <s v="Inicio / Ficha Técnica "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
     <s v="Busqueda"/>
     <x v="3"/>
     <m/>
-    <s v="Busqueda de MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
-    <s v="Inicio / MIR "/>
+    <s v="Busqueda de Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="50"/>
+    <s v="Ficha Técnica"/>
+    <s v="Inicio / Ficha Técnica "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
-    <s v="Filtro Por Estado de la Mir "/>
+    <s v="Filtro Por Estado de la Ficha Técnca "/>
     <x v="3"/>
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
@@ -6061,9 +6071,9 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <s v="MIR"/>
-    <s v="Inicio / MIR "/>
+    <n v="51"/>
+    <s v="Ficha Técnica"/>
+    <s v="Inicio / Ficha Técnica "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
     <s v="Filtro Por Institución "/>
@@ -6077,28 +6087,28 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <s v="MIR"/>
-    <s v="Inicio / MIR "/>
+    <n v="52"/>
+    <s v="Ficha Técnica"/>
+    <s v="Inicio / Ficha Técnica "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
-    <s v="Añadir Registro "/>
-    <x v="3"/>
-    <m/>
-    <s v="Permitir dar acceso al llenado de la información  correspondiente para la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
-    <s v="Inicio / MIR "/>
+    <s v="Opciones /  Registrar Ficha Técnica "/>
+    <x v="3"/>
+    <m/>
+    <s v="Permitir dar acceso al llenado de la información  correspondiente para la Meta Anual "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="53"/>
+    <s v="Ficha Técnica"/>
+    <s v="Inicio / Ficha Técnica "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
-    <s v="Opciones Comentarios "/>
+    <s v="Opciones / Comentarios "/>
     <x v="3"/>
     <m/>
     <s v="Permite leer comentarios enviados por el capturador asi como añadir un nuevo comentario y cancelar "/>
@@ -6109,136 +6119,136 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <s v="MIR"/>
-    <s v="Inicio / MIR "/>
+    <n v="54"/>
+    <s v="Ficha Técnica"/>
+    <s v="Inicio / Ficha Técnica "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
-    <s v="Opciones Eliminar "/>
-    <x v="3"/>
-    <m/>
-    <s v="Permite Eliminar el registro, una ves autorizado ya no se podra eliminar"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
-    <s v="Inicio / MIR "/>
+    <s v="Opciones / Descargar "/>
+    <x v="3"/>
+    <m/>
+    <s v="Permite Descargar el Registro una ves autorizado "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Ficha Técnica"/>
+    <s v="Inicio / Ficha Técnica "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
-    <s v="Editar "/>
-    <x v="3"/>
-    <m/>
-    <s v="Edita el registro da pauta para enviar a usuarios correspondientes para autorización "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
+    <s v="Opciones / Ver Ficha Técnica "/>
+    <x v="3"/>
+    <m/>
+    <s v="Permite Visualizar Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="55"/>
+    <s v="Ficha Técnica"/>
     <s v="Encabezado "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
     <s v="Captura de información "/>
     <x v="3"/>
     <m/>
-    <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
+    <s v="Correcto llenado de la información correspondiete para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="57"/>
+    <s v="Ficha Técnica"/>
     <s v="Fin  "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
     <s v="Captura de información "/>
     <x v="3"/>
     <m/>
-    <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
+    <s v="Correcto llenado de la información correspondiete para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="58"/>
+    <s v="Ficha Técnica"/>
     <s v="Propósito "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
     <s v="Captura de información "/>
     <x v="3"/>
     <m/>
-    <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
+    <s v="Correcto llenado de la información correspondiete para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="59"/>
+    <s v="Ficha Técnica"/>
     <s v="Componentes "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
     <s v="Captura de información "/>
     <x v="3"/>
     <m/>
-    <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
+    <s v="Correcto llenado de la información correspondiete para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="60"/>
+    <s v="Ficha Técnica"/>
     <s v="Actividades"/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
     <s v="Captura de información "/>
     <x v="3"/>
     <m/>
-    <s v="Correcto  llenado de la información  correspondiente para la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
+    <s v="Correcto llenado de la información correspondiete para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="61"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
     <s v="Captura de información "/>
     <x v="3"/>
     <m/>
-    <s v="Recauda toda la información de la MIR "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
+    <s v="Correcto llenado de la información correspondiete para la Ficha Técnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="62"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
@@ -6253,8 +6263,8 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <s v="MIR"/>
+    <n v="63"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
@@ -6270,23 +6280,39 @@
   </r>
   <r>
     <m/>
-    <s v="MIR"/>
+    <s v="Ficha Técnica"/>
+    <s v="Resumen "/>
+    <m/>
+    <m/>
+    <s v="Solicitar Modificación "/>
+    <x v="3"/>
+    <m/>
+    <s v="Solicita al uasuario correspondiete realizar modificación enviando comentarios "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="64"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
     <s v="Autorizar "/>
     <x v="3"/>
     <m/>
-    <s v="Autorizar MIR y el apartado de meta anual será habilitado"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
+    <s v="Autorizar  la Ficha Tecnica "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="65"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
@@ -6301,8 +6327,8 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <s v="MIR"/>
+    <n v="66"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
@@ -6317,8 +6343,8 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <s v="MIR"/>
+    <n v="67"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
@@ -6333,31 +6359,15 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <s v="MIR"/>
+    <n v="68"/>
+    <s v="Ficha Técnica"/>
     <s v="Resumen "/>
     <s v="Autorizador "/>
     <s v="iclechuga "/>
     <s v="Confirmar "/>
     <x v="3"/>
     <m/>
-    <s v="Confirmación de la MIR para Autorizar y el apartado de meta anual será habilitado "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <s v="MIR"/>
-    <s v="Inicio / MIR "/>
-    <s v="Autorizador "/>
-    <s v="iclechuga "/>
-    <s v="Opciones / Descargar Mir "/>
-    <x v="3"/>
-    <m/>
-    <s v="Descargar MIR "/>
+    <s v="Confirmación  de Autorización de la ficha Técnica "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -9760,7 +9770,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -9771,9 +9781,9 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
+        <item x="0"/>
         <item x="2"/>
         <item x="1"/>
-        <item x="0"/>
         <item h="1" x="3"/>
         <item t="default"/>
       </items>
@@ -9881,7 +9891,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -9898,22 +9908,22 @@
       <items count="5">
         <item h="1" x="0"/>
         <item m="1" x="3"/>
+        <item m="1" x="1"/>
         <item m="1" x="2"/>
-        <item m="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" dataField="1" showAll="0">
       <items count="10">
-        <item m="1" x="5"/>
-        <item m="1" x="8"/>
-        <item m="1" x="4"/>
-        <item x="0"/>
+        <item m="1" x="1"/>
         <item m="1" x="3"/>
         <item m="1" x="6"/>
+        <item x="0"/>
+        <item m="1" x="5"/>
         <item m="1" x="7"/>
+        <item m="1" x="8"/>
         <item m="1" x="2"/>
-        <item m="1" x="1"/>
+        <item m="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10059,7 +10069,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -10076,14 +10086,14 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
         <item h="1" x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item m="1" x="3"/>
         <item m="1" x="6"/>
+        <item m="1" x="1"/>
+        <item m="1" x="5"/>
         <item m="1" x="7"/>
+        <item m="1" x="8"/>
         <item m="1" x="2"/>
-        <item m="1" x="1"/>
+        <item m="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10128,8 +10138,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:N260" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" headerRowCellStyle="60% - Énfasis3">
-  <autoFilter ref="A6:N260"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:N261" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" headerRowCellStyle="60% - Énfasis3">
+  <autoFilter ref="A6:N261"/>
   <tableColumns count="14">
     <tableColumn id="1" name="N° Caso"/>
     <tableColumn id="2" name="Menús" dataDxfId="4"/>
@@ -10396,11 +10406,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:N283"/>
+  <dimension ref="A1:N284"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35:C37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10422,94 +10432,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="A1" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="28" t="s">
+      <c r="A3" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:14" s="20" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="1:14" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" spans="1:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -10560,25 +10570,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -10587,28 +10597,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="N8" s="1"/>
     </row>
@@ -10617,58 +10624,52 @@
         <v>3</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="N10" s="1"/>
     </row>
@@ -10677,28 +10678,25 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="N11" s="1"/>
     </row>
@@ -10707,19 +10705,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -10731,25 +10729,25 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="N13" s="1"/>
     </row>
@@ -10758,25 +10756,25 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="N14" s="1"/>
     </row>
@@ -10785,25 +10783,25 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="N15" s="1"/>
     </row>
@@ -10812,25 +10810,25 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="N16" s="1"/>
     </row>
@@ -10839,25 +10837,25 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N17" s="1"/>
     </row>
@@ -10866,25 +10864,25 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N18" s="1"/>
     </row>
@@ -10893,25 +10891,25 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="N19" s="1"/>
     </row>
@@ -10920,50 +10918,50 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="I20" s="3" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="J20" s="3"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="N21" s="1"/>
     </row>
@@ -10972,25 +10970,25 @@
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="N22" s="1"/>
     </row>
@@ -10999,25 +10997,25 @@
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="N23" s="1"/>
     </row>
@@ -11026,25 +11024,25 @@
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="N24" s="1"/>
     </row>
@@ -11053,25 +11051,25 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="N25" s="1"/>
     </row>
@@ -11080,25 +11078,25 @@
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
         <v>16</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="N26" s="1"/>
     </row>
@@ -11107,25 +11105,25 @@
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="N27" s="1"/>
     </row>
@@ -11134,25 +11132,25 @@
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
         <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" t="s">
-        <v>70</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="N28" s="1"/>
     </row>
@@ -11161,25 +11159,25 @@
         <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="N29" s="1"/>
     </row>
@@ -11188,26 +11186,26 @@
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
       </c>
       <c r="H30"/>
       <c r="I30" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J30"/>
       <c r="N30" s="1"/>
@@ -11217,28 +11215,26 @@
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" t="s">
-        <v>95</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H31"/>
       <c r="I31" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J31"/>
       <c r="N31" s="1"/>
@@ -11248,28 +11244,25 @@
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N32" s="1"/>
     </row>
@@ -11278,31 +11271,25 @@
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="M33" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="N33" s="1"/>
     </row>
@@ -11311,22 +11298,22 @@
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="N34" s="1"/>
     </row>
@@ -11335,22 +11322,22 @@
         <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>139</v>
+        <v>106</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N35" s="1"/>
     </row>
@@ -11359,22 +11346,22 @@
         <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>139</v>
+        <v>106</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N36" s="1"/>
     </row>
@@ -11383,22 +11370,22 @@
         <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>139</v>
+        <v>106</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="N37" s="1"/>
     </row>
@@ -11407,37 +11394,43 @@
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>142</v>
+        <v>80</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="N39" s="1"/>
     </row>
@@ -11446,22 +11439,22 @@
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="N40" s="1"/>
     </row>
@@ -11470,22 +11463,22 @@
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="N41" s="1"/>
     </row>
@@ -11494,22 +11487,22 @@
         <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="N42" s="1"/>
     </row>
@@ -11518,22 +11511,22 @@
         <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="N43" s="1"/>
     </row>
@@ -11542,22 +11535,22 @@
         <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E44" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="N44" s="1"/>
     </row>
@@ -11566,22 +11559,22 @@
         <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E45" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N45" s="1"/>
     </row>
@@ -11590,22 +11583,22 @@
         <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="N46" s="1"/>
     </row>
@@ -11614,22 +11607,22 @@
         <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="I47" s="3" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="N47" s="1"/>
     </row>
@@ -11638,22 +11631,22 @@
         <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N48" s="1"/>
     </row>
@@ -11662,22 +11655,22 @@
         <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -11685,22 +11678,22 @@
         <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -11708,22 +11701,22 @@
         <v>47</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E51" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="N51" s="1"/>
     </row>
@@ -11732,22 +11725,22 @@
         <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N52" s="1"/>
     </row>
@@ -11756,22 +11749,22 @@
         <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E53" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="N53" s="1"/>
     </row>
@@ -11780,22 +11773,22 @@
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N54" s="1"/>
     </row>
@@ -11804,22 +11797,22 @@
         <v>51</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N55" s="1"/>
     </row>
@@ -11828,22 +11821,22 @@
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="N56" s="1"/>
     </row>
@@ -11852,22 +11845,22 @@
         <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E57" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="N57" s="1"/>
     </row>
@@ -11876,347 +11869,371 @@
         <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>121</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>55</v>
-      </c>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="N60" s="1"/>
     </row>
     <row r="61" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D61" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E61" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="N61" s="1"/>
     </row>
     <row r="62" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D62" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E62" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="N62" s="1"/>
     </row>
     <row r="63" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>60</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" t="s">
-        <v>86</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="B64" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>61</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C64" t="s">
-        <v>64</v>
-      </c>
-      <c r="D64" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" t="s">
-        <v>86</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>62</v>
-      </c>
       <c r="B65" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D65" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E65" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="N65" s="1"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
+        <v>62</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>63</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B67" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" t="s">
+        <v>78</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D66" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="I67" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="F67" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>64</v>
-      </c>
+    <row r="68" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" t="s">
-        <v>85</v>
-      </c>
-      <c r="E68" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="N68" s="1"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D69" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E69" t="s">
-        <v>86</v>
-      </c>
-      <c r="F69" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="N69" s="1"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D70" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E70" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="N70" s="1"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
+        <v>66</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>67</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" t="s">
-        <v>85</v>
-      </c>
-      <c r="E71" t="s">
-        <v>86</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="B72" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>68</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C72" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" t="s">
-        <v>85</v>
-      </c>
-      <c r="E72" t="s">
-        <v>86</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B73" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="N73" s="1"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -12432,101 +12449,101 @@
     <row r="144" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J160" s="6"/>
+    <row r="160" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J161" s="6"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N176" s="1"/>
     </row>
     <row r="177" spans="10:14" x14ac:dyDescent="0.3">
@@ -12539,7 +12556,6 @@
       <c r="N179" s="1"/>
     </row>
     <row r="180" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J180" s="6"/>
       <c r="N180" s="1"/>
     </row>
     <row r="181" spans="10:14" x14ac:dyDescent="0.3">
@@ -12559,7 +12575,7 @@
       <c r="N184" s="1"/>
     </row>
     <row r="185" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J185" s="7"/>
+      <c r="J185" s="6"/>
       <c r="N185" s="1"/>
     </row>
     <row r="186" spans="10:14" x14ac:dyDescent="0.3">
@@ -12599,6 +12615,7 @@
       <c r="N194" s="1"/>
     </row>
     <row r="195" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J195" s="7"/>
       <c r="N195" s="1"/>
     </row>
     <row r="196" spans="10:14" x14ac:dyDescent="0.3">
@@ -12671,7 +12688,6 @@
       <c r="N218" s="1"/>
     </row>
     <row r="219" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J219" s="7"/>
       <c r="N219" s="1"/>
     </row>
     <row r="220" spans="10:14" x14ac:dyDescent="0.3">
@@ -12723,11 +12739,11 @@
       <c r="N231" s="1"/>
     </row>
     <row r="232" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J232" s="6"/>
+      <c r="J232" s="7"/>
       <c r="N232" s="1"/>
     </row>
     <row r="233" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J233" s="7"/>
+      <c r="J233" s="6"/>
       <c r="N233" s="1"/>
     </row>
     <row r="234" spans="10:14" x14ac:dyDescent="0.3">
@@ -12771,6 +12787,7 @@
       <c r="N243" s="1"/>
     </row>
     <row r="244" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J244" s="7"/>
       <c r="N244" s="1"/>
     </row>
     <row r="245" spans="10:14" x14ac:dyDescent="0.3">
@@ -12812,8 +12829,8 @@
     <row r="257" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N257" s="1"/>
     </row>
-    <row r="261" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N261" s="1"/>
+    <row r="258" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N258" s="1"/>
     </row>
     <row r="262" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N262" s="1"/>
@@ -12830,8 +12847,8 @@
     <row r="266" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N266" s="1"/>
     </row>
-    <row r="269" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N269" s="1"/>
+    <row r="267" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N267" s="1"/>
     </row>
     <row r="270" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N270" s="1"/>
@@ -12870,13 +12887,16 @@
       <c r="N281" s="1"/>
     </row>
     <row r="282" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E282" t="s">
-        <v>23</v>
-      </c>
+      <c r="N282" s="1"/>
     </row>
     <row r="283" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E283" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="284" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E284" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -12899,24 +12919,30 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K29 K32:K284</xm:sqref>
+          <xm:sqref>K74:K285</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G29 G32:G284</xm:sqref>
+          <xm:sqref>G7:G29 G32:G285</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L7:L304</xm:sqref>
+          <xm:sqref>L7:L305</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Datos!$D$2:$D$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>K7:K73</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12929,7 +12955,7 @@
   <dimension ref="A3:B49"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12948,15 +12974,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="11">
         <v>2</v>
@@ -12967,58 +12993,58 @@
         <v>16</v>
       </c>
       <c r="B5" s="13">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="15">
         <v>26</v>
-      </c>
-      <c r="B7" s="15">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="15"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" s="16"/>
     </row>
@@ -13031,10 +13057,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="B1:D5"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13045,7 +13071,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -13059,37 +13085,90 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
